--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1165.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1165.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.043795036265573</v>
+        <v>1.166069507598877</v>
       </c>
       <c r="B1">
-        <v>1.369637001084078</v>
+        <v>2.427430868148804</v>
       </c>
       <c r="C1">
-        <v>2.178291174176291</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.372300386428833</v>
       </c>
       <c r="E1">
-        <v>1.853183818444332</v>
+        <v>1.234972476959229</v>
       </c>
     </row>
   </sheetData>
